--- a/plantillaHPV/espaciosFisicos.xlsx
+++ b/plantillaHPV/espaciosFisicos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Buitrago\Downloads\plantillaHPV\plantillaHPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HPV2018\plantillaHPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -133,20 +133,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>904388</xdr:colOff>
+      <xdr:colOff>1133475</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -165,8 +165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="57150"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="314325" y="9525"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,6 +562,9 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -580,6 +583,9 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -598,6 +604,9 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -616,6 +625,9 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -634,6 +646,9 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -652,6 +667,9 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -660,10 +678,19 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:37" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
@@ -684,6 +711,9 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>

--- a/plantillaHPV/espaciosFisicos.xlsx
+++ b/plantillaHPV/espaciosFisicos.xlsx
@@ -134,19 +134,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -165,7 +165,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="9525"/>
+          <a:off x="342900" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
